--- a/stocks/analise-setorial.xlsx
+++ b/stocks/analise-setorial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="9270" windowHeight="2040" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="9270" windowHeight="2040"/>
   </bookViews>
   <sheets>
     <sheet name="Analise" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId6"/>
+    <pivotCache cacheId="23" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -493,7 +493,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="58">
   <si>
     <t>Nome de Pregão</t>
   </si>
@@ -664,6 +664,9 @@
   </si>
   <si>
     <t>CONTAX</t>
+  </si>
+  <si>
+    <t>Bens Industriais / Serviços</t>
   </si>
 </sst>
 </file>
@@ -931,323 +934,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="129">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="65">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2119,85 +1806,6 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ROE!$D$3:$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CONTAX</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>ROE!$A$5:$A$12</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2011</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2013</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2014</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2015</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Bens Industriais/Construção e Engenharia</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ROE!$D$5:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.25905109853172786</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.6743793423950249E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.9724040585065676E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.23644092741797471</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.24418936639522162</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.3285645658312535</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2381,22 +1989,23 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="42740.829934490743" createdVersion="3" refreshedVersion="4" minRefreshableVersion="3" recordCount="84">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="42740.834412268516" createdVersion="3" refreshedVersion="4" minRefreshableVersion="3" recordCount="84">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela2"/>
   </cacheSource>
   <cacheFields count="23">
     <cacheField name="Setor" numFmtId="0">
-      <sharedItems count="9">
+      <sharedItems count="10">
         <s v="Bens Industriais/Construção e Engenharia"/>
         <s v="Consumo Cíclico / Construção Civil"/>
         <s v="Utilidade Pública/Energia Elétrica"/>
         <s v="Consumo Cíclico/Comércio"/>
         <s v="Financeiro e Outros / Intermediários Financeiros"/>
+        <s v="Bens Industriais / Serviços"/>
+        <s v="Bens Industriais" u="1"/>
         <s v="Consumo Cíclico/Construção Civil" u="1"/>
         <s v="Utilidade Pública" u="1"/>
         <s v="Consumo Cíclico" u="1"/>
-        <s v="Bens Industriais" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Nome de Pregão" numFmtId="0">
@@ -4449,7 +4058,7 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="0"/>
+    <x v="5"/>
     <x v="13"/>
     <x v="0"/>
     <n v="345767870"/>
@@ -4474,7 +4083,7 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="0"/>
+    <x v="5"/>
     <x v="13"/>
     <x v="1"/>
     <n v="345767870"/>
@@ -4499,7 +4108,7 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="0"/>
+    <x v="5"/>
     <x v="13"/>
     <x v="2"/>
     <n v="345767870"/>
@@ -4524,7 +4133,7 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="0"/>
+    <x v="5"/>
     <x v="13"/>
     <x v="3"/>
     <n v="345767870"/>
@@ -4549,7 +4158,7 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="0"/>
+    <x v="5"/>
     <x v="13"/>
     <x v="4"/>
     <n v="345767870"/>
@@ -4574,7 +4183,7 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="0"/>
+    <x v="5"/>
     <x v="13"/>
     <x v="5"/>
     <n v="345767870"/>
@@ -4602,19 +4211,20 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A7:J28" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica2" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A7:J29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="10">
-        <item m="1" x="8"/>
+      <items count="11">
+        <item m="1" x="6"/>
+        <item x="5"/>
         <item x="0"/>
-        <item m="1" x="7"/>
+        <item m="1" x="9"/>
         <item x="1"/>
         <item x="3"/>
-        <item m="1" x="5"/>
+        <item m="1" x="7"/>
         <item x="4"/>
-        <item m="1" x="6"/>
+        <item m="1" x="8"/>
         <item x="2"/>
         <item t="default"/>
       </items>
@@ -4675,9 +4285,15 @@
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="20">
+  <rowItems count="21">
     <i>
       <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="2"/>
     </i>
     <i r="1">
       <x/>
@@ -4685,11 +4301,8 @@
     <i r="1">
       <x v="2"/>
     </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
     <i>
-      <x v="3"/>
+      <x v="4"/>
     </i>
     <i r="1">
       <x v="1"/>
@@ -4698,7 +4311,7 @@
       <x v="11"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="5"/>
     </i>
     <i r="1">
       <x v="4"/>
@@ -4713,13 +4326,13 @@
       <x v="10"/>
     </i>
     <i>
-      <x v="6"/>
+      <x v="7"/>
     </i>
     <i r="1">
       <x v="12"/>
     </i>
     <i>
-      <x v="8"/>
+      <x v="9"/>
     </i>
     <i r="1">
       <x v="3"/>
@@ -4781,7 +4394,7 @@
     <dataField name="Total" fld="4" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="40">
-    <format dxfId="128">
+    <format dxfId="64">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -4796,14 +4409,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="127">
+    <format dxfId="63">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
             <x v="3"/>
           </reference>
           <reference field="0" count="1" selected="0">
-            <x v="2"/>
+            <x v="3"/>
           </reference>
           <reference field="1" count="1">
             <x v="4"/>
@@ -4811,363 +4424,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="126">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="125">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="124">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="123">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="122">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="121">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="120">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="119">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="118">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="117">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="116">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="115">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="114">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="113">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="112">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="111">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="110">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="109">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="108">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="107">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="106">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="105">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="2" selected="0">
-            <x v="3"/>
-            <x v="4"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="104">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="103">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="102">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="101">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="1" count="2">
-            <x v="8"/>
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="100">
+    <format dxfId="62">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -5182,7 +4439,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="99">
+    <format dxfId="61">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -5197,7 +4454,43 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="98">
+    <format dxfId="60">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="59">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="58">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -5209,11 +4502,331 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="97">
+    <format dxfId="56">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="54">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="53">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="1" count="1">
             <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="52">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="51">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="50">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="49">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="48">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="47">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="46">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="45">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="44">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="43">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="42">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="41">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="40">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="39">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="38">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="37">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="1" count="2">
+            <x v="8"/>
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="36">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="35">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="34">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="33">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
           </reference>
           <reference field="1" count="1">
             <x v="6"/>
@@ -5228,7 +4841,7 @@
             <x v="3"/>
           </reference>
           <reference field="0" count="1" selected="0">
-            <x v="1"/>
+            <x v="2"/>
           </reference>
           <reference field="1" count="1">
             <x v="13"/>
@@ -5243,7 +4856,7 @@
             <x v="4"/>
           </reference>
           <reference field="0" count="1" selected="0">
-            <x v="1"/>
+            <x v="2"/>
           </reference>
           <reference field="1" count="1">
             <x v="13"/>
@@ -5258,7 +4871,7 @@
             <x v="5"/>
           </reference>
           <reference field="0" count="1" selected="0">
-            <x v="1"/>
+            <x v="2"/>
           </reference>
           <reference field="1" count="1">
             <x v="13"/>
@@ -5273,7 +4886,7 @@
             <x v="6"/>
           </reference>
           <reference field="0" count="1" selected="0">
-            <x v="1"/>
+            <x v="2"/>
           </reference>
           <reference field="1" count="1">
             <x v="13"/>
@@ -5288,7 +4901,7 @@
             <x v="7"/>
           </reference>
           <reference field="0" count="1" selected="0">
-            <x v="1"/>
+            <x v="2"/>
           </reference>
           <reference field="1" count="1">
             <x v="13"/>
@@ -5303,7 +4916,7 @@
             <x v="7"/>
           </reference>
           <reference field="0" count="1" selected="0">
-            <x v="1"/>
+            <x v="2"/>
           </reference>
           <reference field="1" count="1">
             <x v="2"/>
@@ -5318,7 +4931,7 @@
             <x v="6"/>
           </reference>
           <reference field="0" count="1" selected="0">
-            <x v="1"/>
+            <x v="2"/>
           </reference>
           <reference field="1" count="1">
             <x v="2"/>
@@ -5330,7 +4943,7 @@
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
-            <x v="1"/>
+            <x v="2"/>
           </reference>
           <reference field="1" count="2">
             <x v="2"/>
@@ -5345,20 +4958,21 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica4" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:E12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica4" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:D12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item h="1" m="1" x="8"/>
+      <items count="11">
+        <item h="1" m="1" x="6"/>
         <item x="0"/>
-        <item h="1" m="1" x="7"/>
+        <item h="1" m="1" x="9"/>
         <item h="1" x="1"/>
         <item h="1" x="3"/>
-        <item h="1" m="1" x="5"/>
+        <item h="1" m="1" x="7"/>
         <item h="1" x="4"/>
-        <item h="1" m="1" x="6"/>
+        <item h="1" m="1" x="8"/>
         <item h="1" x="2"/>
+        <item h="1" x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5446,15 +5060,12 @@
   <colFields count="1">
     <field x="1"/>
   </colFields>
-  <colItems count="4">
+  <colItems count="3">
     <i>
       <x v="5"/>
     </i>
     <i>
       <x v="9"/>
-    </i>
-    <i>
-      <x v="13"/>
     </i>
     <i t="grand">
       <x/>
@@ -5463,7 +5074,7 @@
   <dataFields count="1">
     <dataField name="Média de ROE" fld="15" subtotal="average" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
-  <chartFormats count="11">
+  <chartFormats count="12">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -5593,13 +5204,25 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="23">
     <pivotField showAll="0"/>
@@ -5637,16 +5260,17 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="1">
-      <items count="9">
+      <items count="10">
+        <i x="5"/>
         <i x="0" s="1"/>
         <i x="1"/>
         <i x="3"/>
         <i x="4"/>
         <i x="2"/>
+        <i x="6" nd="1"/>
+        <i x="9" nd="1"/>
+        <i x="7" nd="1"/>
         <i x="8" nd="1"/>
-        <i x="7" nd="1"/>
-        <i x="5" nd="1"/>
-        <i x="6" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -5660,50 +5284,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:W85" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:W85" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:W85"/>
   <tableColumns count="23">
-    <tableColumn id="1" name="Setor" dataDxfId="96"/>
-    <tableColumn id="3" name="Nome de Pregão" dataDxfId="95"/>
-    <tableColumn id="4" name="ANO" dataDxfId="94"/>
-    <tableColumn id="5" name="Ações" dataDxfId="93"/>
-    <tableColumn id="6" name="AT" dataDxfId="92"/>
-    <tableColumn id="7" name="AC" dataDxfId="91"/>
-    <tableColumn id="8" name="AI" dataDxfId="90"/>
-    <tableColumn id="9" name="PC" dataDxfId="89"/>
-    <tableColumn id="10" name="PO" dataDxfId="88"/>
-    <tableColumn id="11" name="PL" dataDxfId="87"/>
-    <tableColumn id="12" name="RBV" dataDxfId="86"/>
-    <tableColumn id="13" name="LL" dataDxfId="85"/>
-    <tableColumn id="14" name="Dividendos" dataDxfId="84"/>
-    <tableColumn id="15" name="Div/Ação" dataDxfId="83">
+    <tableColumn id="1" name="Setor" dataDxfId="32"/>
+    <tableColumn id="3" name="Nome de Pregão" dataDxfId="31"/>
+    <tableColumn id="4" name="ANO" dataDxfId="30"/>
+    <tableColumn id="5" name="Ações" dataDxfId="29"/>
+    <tableColumn id="6" name="AT" dataDxfId="28"/>
+    <tableColumn id="7" name="AC" dataDxfId="27"/>
+    <tableColumn id="8" name="AI" dataDxfId="26"/>
+    <tableColumn id="9" name="PC" dataDxfId="25"/>
+    <tableColumn id="10" name="PO" dataDxfId="24"/>
+    <tableColumn id="11" name="PL" dataDxfId="23"/>
+    <tableColumn id="12" name="RBV" dataDxfId="22"/>
+    <tableColumn id="13" name="LL" dataDxfId="21"/>
+    <tableColumn id="14" name="Dividendos" dataDxfId="20"/>
+    <tableColumn id="15" name="Div/Ação" dataDxfId="19">
       <calculatedColumnFormula>IF(Tabela2[Ações]&lt;&gt;0,Tabela2[Dividendos]*1000/Tabela2[Ações],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="MLL" dataDxfId="82">
+    <tableColumn id="16" name="MLL" dataDxfId="18">
       <calculatedColumnFormula>IF(Tabela2[RBV]&gt;0,Tabela2[LL]/Tabela2[RBV],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="ROE" dataDxfId="81">
+    <tableColumn id="17" name="ROE" dataDxfId="17">
       <calculatedColumnFormula>IF(Tabela2[PL]&lt;&gt;0,Tabela2[LL]/Tabela2[PL],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="LC" dataDxfId="80">
+    <tableColumn id="18" name="LC" dataDxfId="16">
       <calculatedColumnFormula>IF(Tabela2[PC]&lt;&gt;0,Tabela2[AC]/Tabela2[PC],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="IPL" dataDxfId="79">
+    <tableColumn id="19" name="IPL" dataDxfId="15">
       <calculatedColumnFormula>IF(Tabela2[PL]&lt;&gt;0,Tabela2[AI]/Tabela2[PL],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="EO" dataDxfId="78">
+    <tableColumn id="20" name="EO" dataDxfId="14">
       <calculatedColumnFormula>IF(Tabela2[AT]&lt;&gt;0,Tabela2[PO]/Tabela2[AT],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="Payout" dataDxfId="77">
+    <tableColumn id="21" name="Payout" dataDxfId="13">
       <calculatedColumnFormula>IF(Tabela2[LL]&lt;&gt;0,Tabela2[Dividendos]/Tabela2[LL],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="Compra [20%]" dataDxfId="76">
+    <tableColumn id="22" name="Compra [20%]" dataDxfId="12">
       <calculatedColumnFormula>(Tabela2[Div/Ação]/20%*Tabela2[Unit])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="Compra [CDI]" dataDxfId="75">
+    <tableColumn id="23" name="Compra [CDI]" dataDxfId="11">
       <calculatedColumnFormula>(Tabela2[Div/Ação]/Setup!$A$2*Tabela2[Unit])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="Unit" dataDxfId="72"/>
+    <tableColumn id="25" name="Unit" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5998,11 +5622,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D57" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O79" sqref="O79"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -12581,7 +12205,7 @@
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="25" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B80" s="25" t="s">
         <v>56</v>
@@ -12662,7 +12286,7 @@
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" s="25" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B81" s="25" t="s">
         <v>56</v>
@@ -12743,7 +12367,7 @@
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" s="25" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B82" s="25" t="s">
         <v>56</v>
@@ -12824,7 +12448,7 @@
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" s="25" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B83" s="25" t="s">
         <v>56</v>
@@ -12906,7 +12530,7 @@
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" s="25" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B84" s="25" t="s">
         <v>56</v>
@@ -12988,7 +12612,7 @@
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" s="25" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B85" s="25" t="s">
         <v>56</v>
@@ -13079,10 +12703,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:J28"/>
+  <dimension ref="A7:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13138,319 +12762,319 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2">
-        <v>0.49968350477201778</v>
+        <v>0.52539771673846103</v>
       </c>
       <c r="C9" s="3">
-        <v>0.96192627567710609</v>
+        <v>0.51606636170869968</v>
       </c>
       <c r="D9" s="3">
-        <v>1.3860609159612478</v>
+        <v>0.74361147220273738</v>
       </c>
       <c r="E9" s="2">
-        <v>6.1633254544785646E-2</v>
+        <v>8.8734702531512756E-3</v>
       </c>
       <c r="F9" s="2">
-        <v>0.17375327829691228</v>
+        <v>-7.373588991288553E-2</v>
       </c>
       <c r="G9" s="8">
-        <v>1.3507344363971412</v>
+        <v>0.94851647683438411</v>
       </c>
       <c r="H9" s="2">
-        <v>1.2538952743498115</v>
+        <v>1.2606080444221448</v>
       </c>
       <c r="I9" s="2">
-        <v>0.40455022258431295</v>
+        <v>0.51352531269895429</v>
       </c>
       <c r="J9" s="7">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2">
-        <v>0.75640677363623343</v>
+        <v>0.52539771673846103</v>
       </c>
       <c r="C10" s="3">
-        <v>1.8227327746741153</v>
+        <v>0.51606636170869968</v>
       </c>
       <c r="D10" s="3">
-        <v>2.6264161018359009</v>
+        <v>0.74361147220273738</v>
       </c>
       <c r="E10" s="2">
-        <v>0.10029632077232727</v>
+        <v>8.8734702531512756E-3</v>
       </c>
       <c r="F10" s="2">
-        <v>0.18854427090624257</v>
+        <v>-7.373588991288553E-2</v>
       </c>
       <c r="G10" s="8">
-        <v>2.0013877464601744</v>
+        <v>0.94851647683438411</v>
       </c>
       <c r="H10" s="2">
-        <v>0.57902585563132924</v>
+        <v>1.2606080444221448</v>
       </c>
       <c r="I10" s="2">
-        <v>0.16297419756737613</v>
+        <v>0.51352531269895429</v>
       </c>
       <c r="J10" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>28</v>
+      <c r="A11" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B11" s="2">
-        <v>0.21724602394135897</v>
+        <v>0.48682639878879619</v>
       </c>
       <c r="C11" s="3">
-        <v>0.54697969064850294</v>
+        <v>1.184856232661309</v>
       </c>
       <c r="D11" s="3">
-        <v>0.78815517384510514</v>
+        <v>1.707285637840503</v>
       </c>
       <c r="E11" s="2">
-        <v>7.5729972608878385E-2</v>
+        <v>8.8013146690602839E-2</v>
       </c>
       <c r="F11" s="2">
-        <v>0.4064514538973798</v>
+        <v>0.29749786240181114</v>
       </c>
       <c r="G11" s="8">
-        <v>1.1022990858968658</v>
-      </c>
-      <c r="H11" s="9">
-        <v>1.9220519229959612</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0.53715115748660824</v>
+        <v>1.5518434161785197</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1.2505388893136451</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.35006267752699222</v>
       </c>
       <c r="J11" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>56</v>
+      <c r="A12" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>0.52539771673846103</v>
+        <v>0.75640677363623343</v>
       </c>
       <c r="C12" s="3">
-        <v>0.51606636170869968</v>
+        <v>1.8227327746741153</v>
       </c>
       <c r="D12" s="3">
-        <v>0.74361147220273738</v>
-      </c>
-      <c r="E12" s="9">
-        <v>8.8734702531512756E-3</v>
-      </c>
-      <c r="F12" s="9">
-        <v>-7.373588991288553E-2</v>
-      </c>
-      <c r="G12" s="10">
-        <v>0.94851647683438411</v>
-      </c>
-      <c r="H12" s="9">
-        <v>1.2606080444221448</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0.51352531269895429</v>
+        <v>2.6264161018359009</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.10029632077232727</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.18854427090624257</v>
+      </c>
+      <c r="G12" s="8">
+        <v>2.0013877464601744</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.57902585563132924</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.16297419756737613</v>
       </c>
       <c r="J12" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>49</v>
+      <c r="A13" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="B13" s="2">
-        <v>0.27659996021747624</v>
+        <v>0.21724602394135897</v>
       </c>
       <c r="C13" s="3">
-        <v>1.1471793820791376</v>
+        <v>0.54697969064850294</v>
       </c>
       <c r="D13" s="3">
-        <v>1.6529962277797372</v>
+        <v>0.78815517384510514</v>
       </c>
       <c r="E13" s="2">
-        <v>0.127629191522378</v>
+        <v>7.5729972608878385E-2</v>
       </c>
       <c r="F13" s="2">
-        <v>0.13931711197458016</v>
+        <v>0.4064514538973798</v>
       </c>
       <c r="G13" s="8">
-        <v>2.2921027626900887</v>
-      </c>
-      <c r="H13" s="2">
-        <v>2.6442919363389591E-2</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.58014368526238891</v>
+        <v>1.1022990858968658</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1.9220519229959612</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.53715115748660824</v>
       </c>
       <c r="J13" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>16</v>
+      <c r="A14" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="B14" s="2">
-        <v>0.35624958099219201</v>
+        <v>0.27659996021747624</v>
       </c>
       <c r="C14" s="3">
-        <v>1.5286092211966664</v>
+        <v>1.1471793820791376</v>
       </c>
       <c r="D14" s="3">
-        <v>2.2026069469692602</v>
+        <v>1.6529962277797372</v>
       </c>
       <c r="E14" s="2">
-        <v>0.1513988703590127</v>
+        <v>0.127629191522378</v>
       </c>
       <c r="F14" s="2">
-        <v>0.17647228815337201</v>
+        <v>0.13931711197458016</v>
       </c>
       <c r="G14" s="8">
-        <v>2.5730778357416182</v>
+        <v>2.2921027626900887</v>
       </c>
       <c r="H14" s="2">
-        <v>2.0868593249238242E-2</v>
+        <v>2.6442919363389591E-2</v>
       </c>
       <c r="I14" s="2">
-        <v>0.60241772197552068</v>
+        <v>0.58014368526238891</v>
       </c>
       <c r="J14" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
-        <v>0.19695033944276041</v>
+        <v>0.35624958099219201</v>
       </c>
       <c r="C15" s="3">
-        <v>0.76574954296160869</v>
+        <v>1.5286092211966664</v>
       </c>
       <c r="D15" s="3">
-        <v>1.1033855085902144</v>
+        <v>2.2026069469692602</v>
       </c>
       <c r="E15" s="2">
-        <v>0.10385951268574324</v>
+        <v>0.1513988703590127</v>
       </c>
       <c r="F15" s="2">
-        <v>0.10216193579578826</v>
+        <v>0.17647228815337201</v>
       </c>
       <c r="G15" s="8">
-        <v>2.0111276896385593</v>
+        <v>2.5730778357416182</v>
       </c>
       <c r="H15" s="2">
-        <v>3.2017245477540937E-2</v>
+        <v>2.0868593249238242E-2</v>
       </c>
       <c r="I15" s="2">
-        <v>0.55786964854925725</v>
+        <v>0.60241772197552068</v>
       </c>
       <c r="J15" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>47</v>
+      <c r="A16" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="B16" s="2">
-        <v>0.29594863588609277</v>
+        <v>0.19695033944276041</v>
       </c>
       <c r="C16" s="3">
-        <v>0.99846956554140986</v>
+        <v>0.76574954296160869</v>
       </c>
       <c r="D16" s="3">
-        <v>1.4387169532296975</v>
+        <v>1.1033855085902144</v>
       </c>
       <c r="E16" s="2">
-        <v>2.9182207573513638E-2</v>
+        <v>0.10385951268574324</v>
       </c>
       <c r="F16" s="2">
-        <v>8.0498223562821644E-2</v>
+        <v>0.10216193579578826</v>
       </c>
       <c r="G16" s="8">
-        <v>1.8295366158605224</v>
+        <v>2.0111276896385593</v>
       </c>
       <c r="H16" s="2">
-        <v>0.43036421124801622</v>
+        <v>3.2017245477540937E-2</v>
       </c>
       <c r="I16" s="2">
-        <v>0.45898671426928034</v>
+        <v>0.55786964854925725</v>
       </c>
       <c r="J16" s="7">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>36</v>
+      <c r="A17" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B17" s="2">
-        <v>0.53311407519787812</v>
+        <v>0.29594863588609277</v>
       </c>
       <c r="C17" s="3">
-        <v>3.4590123853952863</v>
+        <v>0.99846956554140986</v>
       </c>
       <c r="D17" s="3">
-        <v>4.9841677022986834</v>
+        <v>1.4387169532296975</v>
       </c>
       <c r="E17" s="2">
-        <v>2.9248678309190271E-2</v>
+        <v>2.9182207573513638E-2</v>
       </c>
       <c r="F17" s="2">
-        <v>0.10805905955334845</v>
+        <v>8.0498223562821644E-2</v>
       </c>
       <c r="G17" s="8">
-        <v>1.7147720725376179</v>
+        <v>1.8295366158605224</v>
       </c>
       <c r="H17" s="2">
-        <v>0.24711394880602336</v>
+        <v>0.43036421124801622</v>
       </c>
       <c r="I17" s="2">
-        <v>0.37075711041669229</v>
+        <v>0.45898671426928034</v>
       </c>
       <c r="J17" s="7">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>41</v>
+      <c r="A18" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="B18" s="2">
-        <v>0.52910884788624257</v>
+        <v>0.53311407519787812</v>
       </c>
       <c r="C18" s="3">
-        <v>0.35236259082953142</v>
+        <v>3.4590123853952863</v>
       </c>
       <c r="D18" s="3">
-        <v>0.50772707612324408</v>
+        <v>4.9841677022986834</v>
       </c>
       <c r="E18" s="2">
-        <v>2.5349383263048596E-2</v>
+        <v>2.9248678309190271E-2</v>
       </c>
       <c r="F18" s="2">
-        <v>0.25937756960096242</v>
+        <v>0.10805905955334845</v>
       </c>
       <c r="G18" s="8">
-        <v>1.5156019713152302</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0.99833458631705929</v>
+        <v>1.7147720725376179</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.24711394880602336</v>
       </c>
       <c r="I18" s="2">
-        <v>0.53898730499024405</v>
+        <v>0.37075711041669229</v>
       </c>
       <c r="J18" s="7">
         <v>6</v>
@@ -13458,31 +13082,31 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2">
-        <v>9.087522006724108E-2</v>
+        <v>0.52910884788624257</v>
       </c>
       <c r="C19" s="3">
-        <v>0.16742111349639408</v>
+        <v>0.35236259082953142</v>
       </c>
       <c r="D19" s="3">
-        <v>0.24124079754523639</v>
+        <v>0.50772707612324408</v>
       </c>
       <c r="E19" s="2">
-        <v>8.5701393381916027E-2</v>
-      </c>
-      <c r="F19" s="9">
-        <v>3.8847539729122998E-2</v>
+        <v>2.5349383263048596E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.25937756960096242</v>
       </c>
       <c r="G19" s="8">
-        <v>2.4056296307533138</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0.17770503349829944</v>
+        <v>1.5156019713152302</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0.99833458631705929</v>
       </c>
       <c r="I19" s="2">
-        <v>0.40710142938173971</v>
+        <v>0.53898730499024405</v>
       </c>
       <c r="J19" s="7">
         <v>6</v>
@@ -13490,71 +13114,71 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2">
-        <v>3.0696400393009197E-2</v>
+        <v>9.087522006724108E-2</v>
       </c>
       <c r="C20" s="3">
-        <v>1.5082172444427987E-2</v>
+        <v>0.16742111349639408</v>
       </c>
       <c r="D20" s="3">
-        <v>2.173223695162534E-2</v>
-      </c>
-      <c r="E20" s="9">
-        <v>-2.3570624660100372E-2</v>
+        <v>0.24124079754523639</v>
+      </c>
+      <c r="E20" s="2">
+        <v>8.5701393381916027E-2</v>
       </c>
       <c r="F20" s="9">
-        <v>-8.4291274632147403E-2</v>
+        <v>3.8847539729122998E-2</v>
       </c>
       <c r="G20" s="8">
-        <v>1.6821427888359282</v>
+        <v>2.4056296307533138</v>
       </c>
       <c r="H20" s="2">
-        <v>0.29830327637068305</v>
+        <v>0.17770503349829944</v>
       </c>
       <c r="I20" s="2">
-        <v>0.51910101228844552</v>
+        <v>0.40710142938173971</v>
       </c>
       <c r="J20" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>50</v>
+      <c r="A21" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="B21" s="2">
-        <v>0.36084516974267528</v>
+        <v>3.0696400393009197E-2</v>
       </c>
       <c r="C21" s="3">
-        <v>7.821990601563467</v>
+        <v>1.5082172444427987E-2</v>
       </c>
       <c r="D21" s="3">
-        <v>11.270879829342173</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.10826548049121677</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.1767226701233364</v>
+        <v>2.173223695162534E-2</v>
+      </c>
+      <c r="E21" s="9">
+        <v>-2.3570624660100372E-2</v>
+      </c>
+      <c r="F21" s="9">
+        <v>-8.4291274632147403E-2</v>
       </c>
       <c r="G21" s="8">
-        <v>1</v>
+        <v>1.6821427888359282</v>
       </c>
       <c r="H21" s="2">
-        <v>9.340992468447433E-2</v>
+        <v>0.29830327637068305</v>
       </c>
       <c r="I21" s="2">
-        <v>0</v>
+        <v>0.51910101228844552</v>
       </c>
       <c r="J21" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>51</v>
+      <c r="A22" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="B22" s="2">
         <v>0.36084516974267528</v>
@@ -13585,194 +13209,226 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>46</v>
+      <c r="A23" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B23" s="2">
-        <v>0.70829652343290794</v>
+        <v>0.36084516974267528</v>
       </c>
       <c r="C23" s="3">
-        <v>7.667369147093976</v>
+        <v>7.821990601563467</v>
       </c>
       <c r="D23" s="3">
-        <v>11.048082344515814</v>
+        <v>11.270879829342173</v>
       </c>
       <c r="E23" s="2">
-        <v>0.24690558480338776</v>
+        <v>0.10826548049121677</v>
       </c>
       <c r="F23" s="2">
-        <v>0.16609630658684885</v>
+        <v>0.1767226701233364</v>
       </c>
       <c r="G23" s="8">
-        <v>1.4239208537035151</v>
+        <v>1</v>
       </c>
       <c r="H23" s="2">
-        <v>0.63197012856323365</v>
+        <v>9.340992468447433E-2</v>
       </c>
       <c r="I23" s="2">
-        <v>0.4534967368892891</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>35</v>
+      <c r="A24" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="B24" s="2">
-        <v>0.51152859416695229</v>
+        <v>0.70829652343290794</v>
       </c>
       <c r="C24" s="3">
-        <v>6.0100840662734116</v>
+        <v>7.667369147093976</v>
       </c>
       <c r="D24" s="3">
-        <v>8.6600634960711957</v>
+        <v>11.048082344515814</v>
       </c>
       <c r="E24" s="2">
-        <v>0.17275568725854429</v>
+        <v>0.24690558480338776</v>
       </c>
       <c r="F24" s="2">
-        <v>0.24512499613431238</v>
-      </c>
-      <c r="G24" s="10">
-        <v>0.88210781173522246</v>
+        <v>0.16609630658684885</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1.4239208537035151</v>
       </c>
       <c r="H24" s="2">
-        <v>0.57349289600619824</v>
+        <v>0.63197012856323365</v>
       </c>
       <c r="I24" s="2">
-        <v>0.5652915159566736</v>
+        <v>0.4534967368892891</v>
       </c>
       <c r="J24" s="7">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>37</v>
+      <c r="A25" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="B25" s="2">
-        <v>0.75415649121892014</v>
+        <v>0.51152859416695229</v>
       </c>
       <c r="C25" s="3">
-        <v>7.9613411758468446</v>
+        <v>6.0100840662734116</v>
       </c>
       <c r="D25" s="3">
-        <v>11.471673164044445</v>
+        <v>8.6600634960711957</v>
       </c>
       <c r="E25" s="2">
-        <v>0.56125604507491778</v>
+        <v>0.17275568725854429</v>
       </c>
       <c r="F25" s="2">
-        <v>0.19399420989897634</v>
-      </c>
-      <c r="G25" s="8">
-        <v>2.7289513178337939</v>
+        <v>0.24512499613431238</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0.88210781173522246</v>
       </c>
       <c r="H25" s="2">
-        <v>5.2952284432084161E-3</v>
+        <v>0.57349289600619824</v>
       </c>
       <c r="I25" s="2">
-        <v>0.47671389164281219</v>
+        <v>0.5652915159566736</v>
       </c>
       <c r="J25" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>39</v>
+      <c r="A26" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="B26" s="2">
-        <v>1.1027731719178824</v>
+        <v>0.75415649121892014</v>
       </c>
       <c r="C26" s="3">
-        <v>10.049828916459967</v>
+        <v>7.9613411758468446</v>
       </c>
       <c r="D26" s="3">
-        <v>14.481021493458165</v>
+        <v>11.471673164044445</v>
       </c>
       <c r="E26" s="2">
-        <v>2.6871404735511445E-2</v>
+        <v>0.56125604507491778</v>
       </c>
       <c r="F26" s="2">
-        <v>1.1691061268292788E-2</v>
-      </c>
-      <c r="G26" s="10">
-        <v>0.88128410055169226</v>
+        <v>0.19399420989897634</v>
+      </c>
+      <c r="G26" s="8">
+        <v>2.7289513178337939</v>
       </c>
       <c r="H26" s="2">
-        <v>1.3069177170755548</v>
+        <v>5.2952284432084161E-3</v>
       </c>
       <c r="I26" s="2">
-        <v>0.39149971707104858</v>
+        <v>0.47671389164281219</v>
       </c>
       <c r="J26" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>40</v>
+      <c r="A27" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="B27" s="2">
-        <v>0.46472783642787768</v>
+        <v>1.1027731719178824</v>
       </c>
       <c r="C27" s="3">
-        <v>6.6482224297956796</v>
+        <v>10.049828916459967</v>
       </c>
       <c r="D27" s="3">
-        <v>9.5795712244894524</v>
+        <v>14.481021493458165</v>
       </c>
       <c r="E27" s="2">
-        <v>0.22673920214457743</v>
+        <v>2.6871404735511445E-2</v>
       </c>
       <c r="F27" s="2">
-        <v>0.21357495904581383</v>
-      </c>
-      <c r="G27" s="8">
-        <v>1.2033401846933505</v>
+        <v>1.1691061268292788E-2</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0.88128410055169226</v>
       </c>
       <c r="H27" s="2">
-        <v>0.64217467272797346</v>
+        <v>1.3069177170755548</v>
       </c>
       <c r="I27" s="2">
-        <v>0.38048182288662208</v>
+        <v>0.39149971707104858</v>
       </c>
       <c r="J27" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.46472783642787768</v>
+      </c>
+      <c r="C28" s="3">
+        <v>6.6482224297956796</v>
+      </c>
+      <c r="D28" s="3">
+        <v>9.5795712244894524</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.22673920214457743</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.21357495904581383</v>
+      </c>
+      <c r="G28" s="8">
+        <v>1.2033401846933505</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.64217467272797346</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.38048182288662208</v>
+      </c>
+      <c r="J28" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B29" s="2">
         <v>0.45929116012640619</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C29" s="3">
         <v>3.4046773602353291</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D29" s="3">
         <v>4.9058751588405327</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E29" s="2">
         <v>0.11805534261985254</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F29" s="2">
         <v>0.14021391782585113</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G29" s="8">
         <v>1.6178741937734102</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H29" s="2">
         <v>0.58266563897897772</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I29" s="2">
         <v>0.43027656020799981</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J29" s="7">
         <v>84</v>
       </c>
     </row>
@@ -13809,10 +13465,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E12"/>
+  <dimension ref="A3:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13820,8 +13476,7 @@
     <col min="1" max="1" width="40.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.28515625" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
@@ -13833,7 +13488,7 @@
     <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>52</v>
       </c>
@@ -13841,7 +13496,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>53</v>
       </c>
@@ -13852,13 +13507,10 @@
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>45</v>
       </c>
@@ -13869,13 +13521,10 @@
         <v>0.40645145389737974</v>
       </c>
       <c r="D5" s="2">
-        <v>-7.3735889912885558E-2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.17375327829691228</v>
+        <v>0.2974978624018112</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2010</v>
       </c>
@@ -13886,13 +13535,10 @@
         <v>0.53100138076139125</v>
       </c>
       <c r="D6" s="2">
-        <v>0.25905109853172786</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.34584514749172252</v>
+        <v>0.38924217197171984</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2011</v>
       </c>
@@ -13903,13 +13549,10 @@
         <v>0.29817354947553731</v>
       </c>
       <c r="D7" s="2">
-        <v>4.6743793423950249E-2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.18892182670276367</v>
+        <v>0.26001084334217034</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2012</v>
       </c>
@@ -13920,13 +13563,10 @@
         <v>0.51660937487709147</v>
       </c>
       <c r="D8" s="2">
-        <v>9.9724040585065676E-2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.28399573200247885</v>
+        <v>0.37613157771118544</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2013</v>
       </c>
@@ -13937,13 +13577,10 @@
         <v>0.47176282335280967</v>
       </c>
       <c r="D9" s="2">
-        <v>0.23644092741797471</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.30341174955651379</v>
+        <v>0.33689716062578334</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2014</v>
       </c>
@@ -13954,13 +13591,10 @@
         <v>0.39398179366149699</v>
       </c>
       <c r="D10" s="2">
-        <v>0.24418936639522162</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.2678640182789695</v>
+        <v>0.27970134422084347</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2015</v>
       </c>
@@ -13971,13 +13605,10 @@
         <v>0.22717980125595197</v>
       </c>
       <c r="D11" s="2">
-        <v>-1.3285645658312535</v>
-      </c>
-      <c r="E11" s="2">
-        <v>-0.34751880425097476</v>
+        <v>0.14300407653916458</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>54</v>
       </c>
@@ -13988,10 +13619,7 @@
         <v>0.40645145389737974</v>
       </c>
       <c r="D12" s="2">
-        <v>-7.3735889912885558E-2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.17375327829691228</v>
+        <v>0.2974978624018112</v>
       </c>
     </row>
   </sheetData>
